--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,19 +372,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -544,14 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -576,6 +571,23 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1140,7 +1152,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="14" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
@@ -1153,7 +1165,7 @@
       <c r="B1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D1" t="s">
@@ -1179,7 +1191,7 @@
       <c r="B2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D2" s="10">
@@ -1202,7 +1214,7 @@
       <c r="B3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="10">
@@ -1225,7 +1237,7 @@
       <c r="B4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="10">
@@ -1248,7 +1260,7 @@
       <c r="B5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="10">
@@ -1268,7 +1280,7 @@
       <c r="B6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D6" s="10">
@@ -1288,7 +1300,7 @@
       <c r="B7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>86</v>
       </c>
       <c r="D7">
@@ -1308,7 +1320,7 @@
       <c r="B8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D8">
@@ -1328,7 +1340,7 @@
       <c r="B9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="10">
@@ -1350,7 +1362,7 @@
       <c r="B10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="10">
@@ -1372,7 +1384,7 @@
       <c r="B11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="10">
@@ -1392,7 +1404,7 @@
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="10">
@@ -1412,7 +1424,7 @@
       <c r="B13" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="10">
@@ -1432,7 +1444,7 @@
       <c r="B14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D14">
@@ -1452,7 +1464,7 @@
       <c r="B15" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D15">
@@ -1474,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1686,286 +1698,376 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20">
+    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>65</v>
       </c>
-      <c r="D9" s="22">
-        <v>2</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="D9" s="19">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
+    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>66</v>
       </c>
-      <c r="D10" s="22">
-        <v>2</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20">
+    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>67</v>
       </c>
-      <c r="D11" s="22">
-        <v>2</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20">
+    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>68</v>
       </c>
-      <c r="D12" s="22">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="19">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20">
+    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>70</v>
       </c>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23">
+      <c r="D13" s="19">
+        <v>2</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="20">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20">
+    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>71</v>
       </c>
-      <c r="D14" s="22">
-        <v>2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="20">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20">
+    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>72</v>
       </c>
-      <c r="D15" s="22">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23">
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="20">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20">
+    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>73</v>
       </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
         <v>5</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23">
+      <c r="F16" s="19"/>
+      <c r="G16" s="20">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="20">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>74</v>
       </c>
-      <c r="D17" s="26">
-        <v>2</v>
-      </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="12">
+      <c r="D17" s="23">
+        <v>2</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="22">
         <v>1612828800</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="22">
         <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>75</v>
       </c>
-      <c r="D18" s="26">
-        <v>2</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="12">
+      <c r="D18" s="23">
+        <v>2</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22">
         <v>1612828800</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="22">
         <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>76</v>
       </c>
-      <c r="D19" s="26">
-        <v>2</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="12">
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="22">
         <v>1612828800</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="22">
         <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>77</v>
       </c>
-      <c r="D20" s="26">
-        <v>2</v>
-      </c>
-      <c r="E20" s="26">
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23">
         <v>5</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="12">
+      <c r="F20" s="23"/>
+      <c r="G20" s="22">
         <v>1612828800</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="22">
         <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="26">
+        <v>78</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="12">
+        <v>1613433600</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="26">
+        <v>79</v>
+      </c>
+      <c r="D22" s="25">
+        <v>2</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="12">
+        <v>1613433600</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="26">
+        <v>80</v>
+      </c>
+      <c r="D23" s="25">
+        <v>2</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="12">
+        <v>1613433600</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="26">
+        <v>81</v>
+      </c>
+      <c r="D24" s="25">
+        <v>2</v>
+      </c>
+      <c r="E24" s="25">
+        <v>5</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="12">
+        <v>1613433600</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1614009599</v>
       </c>
     </row>
   </sheetData>
@@ -2163,14 +2265,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="21.25" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2180,7 +2282,7 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2210,166 +2312,182 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="17"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="17"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="17"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="18"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="18"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="15"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="18"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="17"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="17"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="17"/>
+      <c r="B23" s="14"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="17"/>
+      <c r="B24" s="14"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
+      <c r="B26" s="14"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="17"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="17"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="17"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="17"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="17"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="17"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="17"/>
+      <c r="B37" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -372,19 +372,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,</t>
+    <t>161,162,163,161,162,163,161,162,163,170,171,172,70,171,172,70,171,172,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,166,164,165,166,164,165,166,173,174,175,173,174,175,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,167,167,176,176,176,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,168,169,168,169,177,178,177,178,177,178,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,7 +1476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -2169,8 +2169,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G17:H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>54</v>
@@ -2272,7 +2272,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>55</v>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -372,19 +372,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,161,162,163,170,171,172,70,171,172,70,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,166,164,165,166,164,165,166,173,174,175,173,174,175,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,167,167,176,176,176,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,168,169,168,169,177,178,177,178,177,178,</t>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1891,15 +1891,13 @@
       <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="E17" s="26">
-        <v>1</v>
-      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="26"/>
-      <c r="G17" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H17" s="23">
-        <v>1612799999</v>
+      <c r="G17" s="12">
+        <v>1612828800</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1915,15 +1913,13 @@
       <c r="D18" s="26">
         <v>2</v>
       </c>
-      <c r="E18" s="26">
-        <v>1</v>
-      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1612799999</v>
+      <c r="G18" s="12">
+        <v>1612828800</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1939,15 +1935,13 @@
       <c r="D19" s="26">
         <v>2</v>
       </c>
-      <c r="E19" s="26">
-        <v>1</v>
-      </c>
+      <c r="E19" s="26"/>
       <c r="F19" s="26"/>
-      <c r="G19" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H19" s="23">
-        <v>1612799999</v>
+      <c r="G19" s="12">
+        <v>1612828800</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1613404799</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1967,11 +1961,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="23">
-        <v>1612224000</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1612799999</v>
+      <c r="G20" s="12">
+        <v>1612828800</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>
@@ -2169,8 +2163,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,30 @@
   </si>
   <si>
     <t>164,165,173,174,182,183,185,176,167,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1147,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1479,6 +1503,46 @@
       </c>
       <c r="F15" s="10" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>290</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>290</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2333,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -389,19 +389,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>83，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红包鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红包鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1510,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>95</v>
@@ -1522,7 +1522,7 @@
         <v>300</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>96</v>
@@ -1542,7 +1542,7 @@
         <v>300</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -397,20 +397,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>84,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>83,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>84,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>188,188,188,189,189,189,189,189,189,189,</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1173,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1513,16 +1512,16 @@
         <v>91</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="10">
+        <v>290</v>
+      </c>
+      <c r="E16" s="10">
+        <v>300</v>
+      </c>
+      <c r="F16" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D16">
-        <v>290</v>
-      </c>
-      <c r="E16">
-        <v>300</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1535,14 +1534,14 @@
       <c r="C17" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="10">
         <v>290</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="10">
         <v>300</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1590,10 +1590,10 @@
         <v>79</v>
       </c>
       <c r="D16" s="10">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E16" s="10">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>80</v>
@@ -1610,10 +1610,10 @@
         <v>81</v>
       </c>
       <c r="D17" s="10">
-        <v>290</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="10">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>78</v>
@@ -2811,7 +2811,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,31 +83,6 @@
   </si>
   <si>
     <t>min_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight4</t>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight3</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight2</t>
-  </si>
-  <si>
-    <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +196,6 @@
   </si>
   <si>
     <t>5,5,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_weight1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -240,16 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dead_force_create_index|死亡强制创建标志索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,23 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,
-179,180,181,179,180,181,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,186,187,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,184,185,185,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,182,183,185,176,167,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红包鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -410,6 +354,58 @@
   </si>
   <si>
     <t>188,188,188,189,189,189,189,189,189,189,</t>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.16</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.16</t>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼2.23</t>
+  </si>
+  <si>
+    <t>常规活动鱼boss2.23</t>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,7 +498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +540,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,9 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -588,32 +587,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -903,7 +904,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -913,25 +914,25 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -980,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1029,7 +1030,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,56 +1171,64 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="74.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.875" style="13" customWidth="1"/>
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="10">
         <v>1500</v>
@@ -1228,21 +1237,23 @@
         <v>1800</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="10">
         <v>3000</v>
@@ -1251,21 +1262,23 @@
         <v>3300</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="10">
         <v>4500</v>
@@ -1274,21 +1287,23 @@
         <v>4800</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>84</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1297,18 +1312,20 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1317,18 +1334,20 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1337,18 +1356,18 @@
         <v>250</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1357,18 +1376,18 @@
         <v>600</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1377,20 +1396,19 @@
         <v>30</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="14" t="s">
         <v>63</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="10">
         <v>40</v>
@@ -1399,20 +1417,19 @@
         <v>80</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="14" t="s">
         <v>63</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1421,18 +1438,20 @@
         <v>100</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1441,18 +1460,20 @@
         <v>300</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1461,18 +1482,20 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="14" t="s">
         <v>64</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1481,18 +1504,18 @@
         <v>700</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1501,18 +1524,18 @@
         <v>4000</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>76</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="D16" s="10">
         <v>290</v>
@@ -1521,18 +1544,18 @@
         <v>300</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>96</v>
+        <v>77</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="10">
         <v>290</v>
@@ -1541,7 +1564,511 @@
         <v>300</v>
       </c>
       <c r="F17" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J18" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J19" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J20" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J21" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1200</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J22" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="25">
+        <v>6000</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="33">
+        <v>1612828800</v>
+      </c>
+      <c r="J23" s="33">
+        <v>1613404799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J24" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J25" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="27">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J27" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="27">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="27">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="27">
+        <v>6000</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J29" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E30" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J30" s="34">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E31" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J31" s="34">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J32" s="34">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J33" s="34">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="29">
+        <v>1200</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J34" s="34">
+        <v>1614614399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>93</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="29">
+        <v>3000</v>
+      </c>
+      <c r="E35" s="29">
+        <v>6000</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="34">
+        <v>1614038400</v>
+      </c>
+      <c r="J35" s="34">
+        <v>1614614399</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +2083,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:H24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1574,28 +2101,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1603,7 +2130,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C2" s="7">
         <v>15</v>
@@ -1627,7 +2154,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7">
         <v>16</v>
@@ -1651,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C4" s="7">
         <v>17</v>
@@ -1677,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>21</v>
@@ -1701,7 +2228,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
@@ -1724,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2">
         <v>23</v>
@@ -1747,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
@@ -1765,377 +2292,277 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="17">
         <v>65</v>
       </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19">
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="B10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="17">
         <v>66</v>
       </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="19">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19">
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="B11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="17">
         <v>67</v>
       </c>
-      <c r="D11" s="19">
-        <v>2</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19">
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="17">
         <v>68</v>
       </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="D12" s="18">
+        <v>2</v>
+      </c>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19">
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="20">
+      <c r="B13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="19">
         <v>70</v>
       </c>
-      <c r="D13" s="19">
-        <v>2</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20">
+      <c r="D13" s="18">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="20">
+      <c r="B14" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19">
         <v>71</v>
       </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>1</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20">
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="B15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="19">
         <v>72</v>
       </c>
-      <c r="D15" s="19">
-        <v>2</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20">
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="20">
+      <c r="B16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="19">
         <v>73</v>
       </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20">
+      <c r="F16" s="18"/>
+      <c r="G16" s="19">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="19">
         <v>1607961599</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="22">
-        <v>74</v>
-      </c>
-      <c r="D17" s="23">
-        <v>2</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="22">
-        <v>1612828800</v>
-      </c>
-      <c r="H17" s="22">
-        <v>1613404799</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="22">
-        <v>75</v>
-      </c>
-      <c r="D18" s="23">
-        <v>2</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="22">
-        <v>1612828800</v>
-      </c>
-      <c r="H18" s="22">
-        <v>1613404799</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="22">
-        <v>76</v>
-      </c>
-      <c r="D19" s="23">
-        <v>2</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="22">
-        <v>1612828800</v>
-      </c>
-      <c r="H19" s="22">
-        <v>1613404799</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="22">
-        <v>77</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2</v>
-      </c>
-      <c r="E20" s="23">
-        <v>5</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="22">
-        <v>1612828800</v>
-      </c>
-      <c r="H20" s="22">
-        <v>1613404799</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="24">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="26">
-        <v>78</v>
-      </c>
-      <c r="D21" s="25">
-        <v>2</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="12">
-        <v>1613433600</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1614009599</v>
-      </c>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="26">
-        <v>79</v>
-      </c>
-      <c r="D22" s="25">
-        <v>2</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="12">
-        <v>1613433600</v>
-      </c>
-      <c r="H22" s="12">
-        <v>1614009599</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="24">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="26">
-        <v>80</v>
-      </c>
-      <c r="D23" s="25">
-        <v>2</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="12">
-        <v>1613433600</v>
-      </c>
-      <c r="H23" s="12">
-        <v>1614009599</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="26">
-        <v>81</v>
-      </c>
-      <c r="D24" s="25">
-        <v>2</v>
-      </c>
-      <c r="E24" s="25">
-        <v>5</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="12">
-        <v>1613433600</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1614009599</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2333,13 +2760,13 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.75" style="2"/>
-    <col min="2" max="2" width="40.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="10.75" style="2"/>
@@ -2347,19 +2774,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2367,194 +2794,138 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.2">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>13</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="15"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="15"/>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="15"/>
+      <c r="B20" s="14"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
+      <c r="B37" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2813,7 +3184,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,7 +3239,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="A28:I28"/>
+      <selection activeCell="M32" sqref="M32:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2878,7 +3249,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,61 @@
   </si>
   <si>
     <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>161,162,163,161,162,163,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,40,30</t>
+  </si>
+  <si>
+    <t>create_weight1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight2</t>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,60,5</t>
+  </si>
+  <si>
+    <t>create_weight3</t>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_weight4</t>
+  </si>
+  <si>
+    <t>巨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +595,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -604,9 +659,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,7 +1225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1184,8 +1236,8 @@
     <col min="6" max="6" width="64.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41.25" customWidth="1"/>
     <col min="8" max="8" width="41.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1213,10 +1265,10 @@
       <c r="H1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="31" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1242,8 +1294,8 @@
       <c r="H2" s="10">
         <v>1</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
@@ -1267,8 +1319,8 @@
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
@@ -1292,8 +1344,8 @@
       <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -1314,8 +1366,8 @@
       <c r="F5" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -1336,8 +1388,8 @@
       <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -1440,8 +1492,8 @@
       <c r="F11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
@@ -1462,8 +1514,8 @@
       <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -1484,8 +1536,8 @@
       <c r="F13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
@@ -1588,10 +1640,10 @@
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1616,10 +1668,10 @@
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="33">
+      <c r="I19" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1644,10 +1696,10 @@
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="33">
+      <c r="I20" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J20" s="33">
+      <c r="J20" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1672,10 +1724,10 @@
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1700,10 +1752,10 @@
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J22" s="33">
+      <c r="J22" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1728,10 +1780,10 @@
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <v>1612828800</v>
       </c>
-      <c r="J23" s="33">
+      <c r="J23" s="32">
         <v>1613404799</v>
       </c>
     </row>
@@ -1924,10 +1976,10 @@
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
-      <c r="I30" s="34">
+      <c r="I30" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="34">
+      <c r="J30" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -1952,10 +2004,10 @@
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
-      <c r="I31" s="34">
+      <c r="I31" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="34">
+      <c r="J31" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -1980,10 +2032,10 @@
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
-      <c r="I32" s="34">
+      <c r="I32" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="34">
+      <c r="J32" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -2008,10 +2060,10 @@
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J33" s="34">
+      <c r="J33" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -2036,10 +2088,10 @@
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="34">
+      <c r="I34" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -2064,10 +2116,10 @@
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <v>1614038400</v>
       </c>
-      <c r="J35" s="34">
+      <c r="J35" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -2759,8 +2811,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2807,16 +2859,72 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="21"/>
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
@@ -2940,7 +3048,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1204,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,10 +1611,10 @@
         <v>86</v>
       </c>
       <c r="D18" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E18" s="25">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>47</v>
@@ -1639,10 +1639,10 @@
         <v>86</v>
       </c>
       <c r="D19" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E19" s="25">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>47</v>
@@ -1656,7 +1656,7 @@
         <v>1613404799</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1667,10 +1667,10 @@
         <v>86</v>
       </c>
       <c r="D20" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E20" s="25">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F20" s="25" t="s">
         <v>47</v>
@@ -1695,10 +1695,10 @@
         <v>86</v>
       </c>
       <c r="D21" s="25">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E21" s="25">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>47</v>
@@ -1717,16 +1717,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="25">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="25">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F22" s="25" t="s">
         <v>47</v>
@@ -1744,31 +1744,31 @@
       <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="25">
-        <v>3000</v>
-      </c>
-      <c r="E23" s="25">
-        <v>6000</v>
-      </c>
-      <c r="F23" s="25" t="s">
+      <c r="B23" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="27">
+        <v>200</v>
+      </c>
+      <c r="E23" s="27">
+        <v>300</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="32">
-        <v>1612828800</v>
-      </c>
-      <c r="J23" s="32">
-        <v>1613404799</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="20">
+        <v>1613433600</v>
+      </c>
+      <c r="J23" s="20">
+        <v>1614009599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1779,10 +1779,10 @@
         <v>90</v>
       </c>
       <c r="D24" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="27">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>47</v>
@@ -1807,10 +1807,10 @@
         <v>90</v>
       </c>
       <c r="D25" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E25" s="27">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F25" s="27" t="s">
         <v>47</v>
@@ -1835,10 +1835,10 @@
         <v>90</v>
       </c>
       <c r="D26" s="27">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="27">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F26" s="27" t="s">
         <v>47</v>
@@ -1857,16 +1857,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="27">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="27">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="27" t="s">
         <v>47</v>
@@ -1884,56 +1884,56 @@
       <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="27">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="27">
-        <v>3000</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="B28" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="29">
+        <v>200</v>
+      </c>
+      <c r="E28" s="29">
+        <v>300</v>
+      </c>
+      <c r="F28" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J28" s="20">
-        <v>1614009599</v>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J28" s="33">
+        <v>1614614399</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="27">
-        <v>3000</v>
-      </c>
-      <c r="E29" s="27">
-        <v>6000</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="B29" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="29">
+        <v>200</v>
+      </c>
+      <c r="E29" s="29">
+        <v>300</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="20">
-        <v>1613433600</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1614009599</v>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="33">
+        <v>1614038400</v>
+      </c>
+      <c r="J29" s="33">
+        <v>1614614399</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1947,10 +1947,10 @@
         <v>93</v>
       </c>
       <c r="D30" s="29">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E30" s="29">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>47</v>
@@ -1975,10 +1975,10 @@
         <v>93</v>
       </c>
       <c r="D31" s="29">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="E31" s="29">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>47</v>
@@ -1997,16 +1997,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="29">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="E32" s="29">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>47</v>
@@ -2017,90 +2017,6 @@
         <v>1614038400</v>
       </c>
       <c r="J32" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <v>32</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="29">
-        <v>1200</v>
-      </c>
-      <c r="E33" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J33" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <v>33</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="29">
-        <v>1200</v>
-      </c>
-      <c r="E34" s="29">
-        <v>3000</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J34" s="33">
-        <v>1614614399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <v>34</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="29">
-        <v>3000</v>
-      </c>
-      <c r="E35" s="29">
-        <v>6000</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="33">
-        <v>1614038400</v>
-      </c>
-      <c r="J35" s="33">
         <v>1614614399</v>
       </c>
     </row>
@@ -2792,7 +2708,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -372,19 +372,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,170,171,172,170,171,172,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>164,165,173,174,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>166,167,168,175,176,176,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,176,178,</t>
+    <t>161,162,163,161,162,163,170,171,172,170,171,172,
+179,180,181,179,180,181,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168,169,176,178,186,187,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>166,167,168,175,176,176,184,185,185,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164,165,173,174,182,183,185,176,167,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +515,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -588,6 +589,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2266,7 +2270,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2312,11 +2316,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -2334,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>53</v>
@@ -2368,7 +2372,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>55</v>

--- a/config_2.9/fish_3d_yutu_random_2.xlsx
+++ b/config_2.9/fish_3d_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="intensity_style|密度" sheetId="3" r:id="rId4"/>
     <sheet name="create" sheetId="6" r:id="rId5"/>
     <sheet name="create_style" sheetId="4" r:id="rId6"/>
-    <sheet name="create_speed_cfg" sheetId="5" r:id="rId7"/>
-    <sheet name="create_weight1" sheetId="7" r:id="rId8"/>
+    <sheet name="create_weight1" sheetId="7" r:id="rId7"/>
+    <sheet name="create_speed_cfg" sheetId="5" r:id="rId8"/>
     <sheet name="create_weight2" sheetId="8" r:id="rId9"/>
     <sheet name="create_weight3" sheetId="9" r:id="rId10"/>
     <sheet name="create_weight4" sheetId="10" r:id="rId11"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,9 +222,6 @@
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161,162,163,161,162,163,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -423,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>164,165,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>create_weight2</t>
   </si>
   <si>
@@ -434,10 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>166,167,168,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
@@ -445,10 +430,6 @@
   </si>
   <si>
     <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>168,169,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1225,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>34</v>
@@ -1263,13 +1244,13 @@
         <v>45</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1277,10 +1258,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="10">
         <v>1500</v>
@@ -1289,7 +1270,7 @@
         <v>1800</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -1302,10 +1283,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10">
         <v>3000</v>
@@ -1314,7 +1295,7 @@
         <v>3300</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -1327,10 +1308,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="10">
         <v>4500</v>
@@ -1339,7 +1320,7 @@
         <v>4800</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -1352,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="10">
         <v>180</v>
@@ -1364,7 +1345,7 @@
         <v>220</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -1374,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="10">
         <v>180</v>
@@ -1386,7 +1367,7 @@
         <v>220</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -1396,10 +1377,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -1416,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>400</v>
@@ -1436,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
@@ -1457,10 +1438,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="10">
         <v>40</v>
@@ -1478,10 +1459,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="10">
         <v>50</v>
@@ -1500,10 +1481,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="10">
         <v>280</v>
@@ -1522,10 +1503,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10">
         <v>300</v>
@@ -1534,7 +1515,7 @@
         <v>500</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
@@ -1544,10 +1525,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>500</v>
@@ -1564,10 +1545,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D15">
         <v>2000</v>
@@ -1584,10 +1565,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="10">
         <v>3000</v>
@@ -1596,7 +1577,7 @@
         <v>3000</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1604,10 +1585,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10">
         <v>3000</v>
@@ -1616,7 +1597,7 @@
         <v>3000</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1624,10 +1605,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="25">
         <v>1200</v>
@@ -1652,10 +1633,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" s="25">
         <v>1200</v>
@@ -1680,10 +1661,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="25">
         <v>1200</v>
@@ -1708,10 +1689,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="25">
         <v>1200</v>
@@ -1736,10 +1717,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="25">
         <v>1200</v>
@@ -1764,10 +1745,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="D23" s="25">
         <v>3000</v>
@@ -1792,10 +1773,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D24" s="27">
         <v>1200</v>
@@ -1820,10 +1801,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="27">
         <v>1200</v>
@@ -1848,10 +1829,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="27">
         <v>1200</v>
@@ -1876,10 +1857,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="27">
         <v>1200</v>
@@ -1904,10 +1885,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="27">
         <v>1200</v>
@@ -1932,10 +1913,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>90</v>
       </c>
       <c r="D29" s="27">
         <v>3000</v>
@@ -1960,10 +1941,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="29">
         <v>1200</v>
@@ -1988,10 +1969,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="29">
         <v>1200</v>
@@ -2016,10 +1997,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="29">
         <v>1200</v>
@@ -2044,10 +2025,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" s="29">
         <v>1200</v>
@@ -2072,10 +2053,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="29">
         <v>1200</v>
@@ -2100,10 +2081,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="29">
         <v>3000</v>
@@ -2811,8 +2792,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2845,9 +2826,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>48</v>
-      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
@@ -2862,68 +2841,60 @@
       <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="19" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>100</v>
-      </c>
+      <c r="B4" s="21"/>
       <c r="C4" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>103</v>
-      </c>
+      <c r="B5" s="22"/>
       <c r="C5" s="19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>107</v>
-      </c>
+      <c r="B6" s="23"/>
       <c r="C6" s="19" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3202,6 +3173,71 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3273,71 +3309,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
